--- a/Number of Bits.xlsx
+++ b/Number of Bits.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hp\Documents\Jibin George Mathew\McMaster\Thrid Year\Semester 1\3K04\SFWRENG-3K04\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FF67CF9-6B50-4676-9AFF-C3909386DF8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B795821-546C-4C68-AB6A-B80BF5E0A281}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{949D7FF4-2357-4599-8995-1CA2FD2FA819}"/>
   </bookViews>
@@ -465,7 +465,7 @@
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -576,10 +576,10 @@
         <v>1.9</v>
       </c>
       <c r="E7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F7">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
@@ -590,10 +590,10 @@
         <v>1.9</v>
       </c>
       <c r="E8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F8">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
@@ -677,7 +677,7 @@
         <v>22</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
@@ -725,7 +725,7 @@
     <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="F18">
         <f>SUM(F2:F17)</f>
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
